--- a/Report Bugs/Test Cases - Report Bugs .xlsx
+++ b/Report Bugs/Test Cases - Report Bugs .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Education\OTHERS\AcademyBugs - Testing\Report Bugs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Education\Software Testing\AcademyBugs - Manual Testing\Report Bugs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588A5059-FD99-40B6-8501-4D585C76D66B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAE4A2E-2A0C-405C-99A3-870D1EC74DCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,9 +222,6 @@
     <t>AcademyBugs - Report Bugs</t>
   </si>
   <si>
-    <t>To be in  the Report Bugs page</t>
-  </si>
-  <si>
     <t>A list of different Report Bugs Shown In The Page</t>
   </si>
   <si>
@@ -547,6 +544,9 @@
   </si>
   <si>
     <t>TC_020</t>
+  </si>
+  <si>
+    <t>Ensure the current page is the the Report Bugs page</t>
   </si>
 </sst>
 </file>
@@ -1112,8 +1112,8 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1235,23 +1235,23 @@
         <v>14</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="D7" s="31" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="I7" s="33" t="s">
         <v>15</v>
@@ -1263,18 +1263,18 @@
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="I8" s="34"/>
     </row>
@@ -1284,18 +1284,18 @@
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="I9" s="34"/>
     </row>
@@ -1305,20 +1305,20 @@
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="I10" s="34"/>
     </row>
@@ -1328,20 +1328,20 @@
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="I11" s="34"/>
     </row>
@@ -1351,20 +1351,20 @@
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="12" t="s">
+      <c r="H12" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="I12" s="34"/>
     </row>
@@ -1374,20 +1374,20 @@
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="12" t="s">
+      <c r="H13" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="I13" s="34"/>
     </row>
@@ -1397,20 +1397,20 @@
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="I14" s="34"/>
     </row>
@@ -1420,20 +1420,20 @@
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="I15" s="34"/>
     </row>
@@ -1443,20 +1443,20 @@
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="9" t="s">
+      <c r="H16" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="I16" s="34"/>
     </row>
@@ -1466,215 +1466,215 @@
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" ht="249.95" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" s="13">
         <v>3</v>
       </c>
       <c r="G18" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" ht="249.95" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F19" s="13">
         <v>3</v>
       </c>
       <c r="G19" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" ht="249.95" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F20" s="13">
         <v>2</v>
       </c>
       <c r="G20" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" ht="249.95" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F21" s="26"/>
       <c r="G21" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" ht="249.95" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" ht="249.95" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>107</v>
       </c>
       <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" ht="249.95" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" ht="249.95" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F25" s="27"/>
       <c r="G25" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" ht="249.95" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="I26" s="34"/>
     </row>
